--- a/documents/Papers Excel.xlsx
+++ b/documents/Papers Excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hohenberg/Documents/thesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hohenberg/project/Masterthesis/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EB5D2C-991F-F24F-9328-C02A0C5E28D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8E1439-7F54-EC45-803B-828E19DF6788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="17400" windowHeight="19440" activeTab="2" xr2:uid="{6FD6712E-4C22-466D-9517-366E9A8AB001}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="11940" windowHeight="19440" activeTab="2" xr2:uid="{6FD6712E-4C22-466D-9517-366E9A8AB001}"/>
   </bookViews>
   <sheets>
     <sheet name="Abstract" sheetId="1" r:id="rId1"/>
@@ -901,7 +901,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="483">
   <si>
     <t>An Evidence-Based Inquiry into the Use of Grey Literature in Software Engineering</t>
   </si>
@@ -2367,6 +2367,12 @@
   </si>
   <si>
     <t>green red</t>
+  </si>
+  <si>
+    <t>auch grün rot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 davon grün rot, </t>
   </si>
 </sst>
 </file>
@@ -6090,8 +6096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE2CEA4-57A1-FB41-AE1D-EFE8EADC5995}">
   <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="I138" sqref="I138"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="I136" sqref="I136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6099,8 +6105,8 @@
     <col min="1" max="1" width="6.6640625" style="28" customWidth="1"/>
     <col min="2" max="2" width="5.5" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" customWidth="1"/>
+    <col min="5" max="5" width="3.83203125" customWidth="1"/>
     <col min="8" max="8" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8044,7 +8050,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:10">
       <c r="A129" s="28" t="s">
         <v>462</v>
       </c>
@@ -8064,7 +8070,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:10">
       <c r="D130" t="s">
         <v>173</v>
       </c>
@@ -8075,7 +8081,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:10">
       <c r="B132">
         <f>COUNTIF(B2:B130,"READ")</f>
         <v>39</v>
@@ -8099,8 +8105,11 @@
       <c r="I132" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="133" spans="1:9">
+      <c r="J132" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="C133">
         <f>COUNTIF(C3:C131,"2")</f>
         <v>21</v>
@@ -8118,10 +8127,13 @@
       <c r="I133" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="134" spans="1:9">
+      <c r="J133" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="F134" s="32">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G134" s="32"/>
       <c r="H134">
@@ -8131,7 +8143,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:10">
       <c r="H135">
         <v>17</v>
       </c>
@@ -8139,22 +8151,22 @@
         <v>445</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:10">
       <c r="F136">
         <f>F133+G133+F134</f>
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H136">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I136" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:10">
       <c r="H137" s="2">
         <f>SUM(H132:H136)</f>
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Papers Excel.xlsx
+++ b/documents/Papers Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hohenberg/project/Masterthesis/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8E1439-7F54-EC45-803B-828E19DF6788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89BC837-E7BD-F74F-A2F8-39625A7BCAA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="11940" windowHeight="19440" activeTab="2" xr2:uid="{6FD6712E-4C22-466D-9517-366E9A8AB001}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="28400" windowHeight="19440" xr2:uid="{6FD6712E-4C22-466D-9517-366E9A8AB001}"/>
   </bookViews>
   <sheets>
     <sheet name="Abstract" sheetId="1" r:id="rId1"/>
@@ -901,7 +901,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="483">
   <si>
     <t>An Evidence-Based Inquiry into the Use of Grey Literature in Software Engineering</t>
   </si>
@@ -3382,8 +3382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8496CB74-6CCF-4401-8352-AB1E1A7656B5}">
   <dimension ref="A1:N167"/>
   <sheetViews>
-    <sheetView topLeftCell="B31" zoomScaleNormal="272" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+    <sheetView tabSelected="1" topLeftCell="B101" zoomScaleNormal="272" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4288,10 +4288,10 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -4308,7 +4308,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="B51" t="s">
+      <c r="B51" s="28" t="s">
         <v>302</v>
       </c>
       <c r="C51" t="s">
@@ -4331,7 +4331,7 @@
       <c r="A52" t="s">
         <v>353</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="28" t="s">
         <v>306</v>
       </c>
       <c r="C52" t="s">
@@ -4348,7 +4348,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="B53" t="s">
+      <c r="B53" s="28" t="s">
         <v>342</v>
       </c>
       <c r="C53" t="s">
@@ -4362,7 +4362,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="B54" t="s">
+      <c r="B54" s="28" t="s">
         <v>343</v>
       </c>
       <c r="C54" t="s">
@@ -4376,6 +4376,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
+      <c r="B55" s="28"/>
       <c r="C55" s="7" t="s">
         <v>94</v>
       </c>
@@ -4387,6 +4388,7 @@
       </c>
     </row>
     <row r="56" spans="1:9">
+      <c r="B56" s="28"/>
       <c r="C56" t="s">
         <v>95</v>
       </c>
@@ -4398,6 +4400,9 @@
       </c>
     </row>
     <row r="57" spans="1:9">
+      <c r="B57" s="28" t="s">
+        <v>465</v>
+      </c>
       <c r="C57" t="s">
         <v>96</v>
       </c>
@@ -4409,6 +4414,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
+      <c r="B58" s="28"/>
       <c r="C58" t="s">
         <v>97</v>
       </c>
@@ -4420,6 +4426,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
+      <c r="B59" s="28"/>
       <c r="C59" t="s">
         <v>98</v>
       </c>
@@ -4431,6 +4438,9 @@
       </c>
     </row>
     <row r="60" spans="1:9">
+      <c r="B60" s="28" t="s">
+        <v>466</v>
+      </c>
       <c r="C60" t="s">
         <v>99</v>
       </c>
@@ -4442,6 +4452,9 @@
       </c>
     </row>
     <row r="61" spans="1:9">
+      <c r="B61" s="28" t="s">
+        <v>467</v>
+      </c>
       <c r="C61" t="s">
         <v>100</v>
       </c>
@@ -4453,6 +4466,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
+      <c r="B62" s="28"/>
       <c r="C62" t="s">
         <v>101</v>
       </c>
@@ -4464,6 +4478,9 @@
       </c>
     </row>
     <row r="63" spans="1:9">
+      <c r="B63" s="28" t="s">
+        <v>446</v>
+      </c>
       <c r="C63" t="s">
         <v>102</v>
       </c>
@@ -4475,6 +4492,9 @@
       </c>
     </row>
     <row r="64" spans="1:9">
+      <c r="B64" s="28" t="s">
+        <v>436</v>
+      </c>
       <c r="C64" t="s">
         <v>103</v>
       </c>
@@ -4486,6 +4506,7 @@
       </c>
     </row>
     <row r="65" spans="1:5">
+      <c r="B65" s="28"/>
       <c r="C65" t="s">
         <v>104</v>
       </c>
@@ -4500,6 +4521,9 @@
       <c r="A66" s="10" t="s">
         <v>360</v>
       </c>
+      <c r="B66" s="28" t="s">
+        <v>468</v>
+      </c>
       <c r="C66" t="s">
         <v>105</v>
       </c>
@@ -4511,6 +4535,7 @@
       </c>
     </row>
     <row r="67" spans="1:5">
+      <c r="B67" s="28"/>
       <c r="C67" t="s">
         <v>106</v>
       </c>
@@ -4522,6 +4547,7 @@
       </c>
     </row>
     <row r="68" spans="1:5">
+      <c r="B68" s="28"/>
       <c r="C68" t="s">
         <v>107</v>
       </c>
@@ -4533,6 +4559,9 @@
       </c>
     </row>
     <row r="69" spans="1:5">
+      <c r="B69" s="28" t="s">
+        <v>447</v>
+      </c>
       <c r="C69" t="s">
         <v>108</v>
       </c>
@@ -4544,6 +4573,7 @@
       </c>
     </row>
     <row r="70" spans="1:5">
+      <c r="B70" s="28"/>
       <c r="C70" t="s">
         <v>109</v>
       </c>
@@ -4555,6 +4585,7 @@
       </c>
     </row>
     <row r="71" spans="1:5">
+      <c r="B71" s="28"/>
       <c r="C71" t="s">
         <v>110</v>
       </c>
@@ -4566,6 +4597,9 @@
       </c>
     </row>
     <row r="72" spans="1:5">
+      <c r="B72" s="28" t="s">
+        <v>469</v>
+      </c>
       <c r="C72" t="s">
         <v>111</v>
       </c>
@@ -4577,6 +4611,9 @@
       </c>
     </row>
     <row r="73" spans="1:5">
+      <c r="B73" s="28" t="s">
+        <v>448</v>
+      </c>
       <c r="C73" t="s">
         <v>112</v>
       </c>
@@ -4588,6 +4625,7 @@
       </c>
     </row>
     <row r="74" spans="1:5">
+      <c r="B74" s="28"/>
       <c r="C74" t="s">
         <v>113</v>
       </c>
@@ -4602,6 +4640,7 @@
       <c r="A75" s="10" t="s">
         <v>361</v>
       </c>
+      <c r="B75" s="28"/>
       <c r="C75" t="s">
         <v>114</v>
       </c>
@@ -4613,6 +4652,7 @@
       </c>
     </row>
     <row r="76" spans="1:5">
+      <c r="B76" s="28"/>
       <c r="C76" t="s">
         <v>115</v>
       </c>
@@ -4624,6 +4664,9 @@
       </c>
     </row>
     <row r="77" spans="1:5">
+      <c r="B77" s="28" t="s">
+        <v>449</v>
+      </c>
       <c r="C77" t="s">
         <v>116</v>
       </c>
@@ -4635,6 +4678,7 @@
       </c>
     </row>
     <row r="78" spans="1:5">
+      <c r="B78" s="28"/>
       <c r="C78" t="s">
         <v>117</v>
       </c>
@@ -4646,6 +4690,9 @@
       </c>
     </row>
     <row r="79" spans="1:5">
+      <c r="B79" s="28" t="s">
+        <v>470</v>
+      </c>
       <c r="C79" t="s">
         <v>118</v>
       </c>
@@ -4657,6 +4704,9 @@
       </c>
     </row>
     <row r="80" spans="1:5">
+      <c r="B80" s="28" t="s">
+        <v>437</v>
+      </c>
       <c r="C80" t="s">
         <v>119</v>
       </c>
@@ -4667,7 +4717,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="81" spans="3:5">
+    <row r="81" spans="2:5">
+      <c r="B81" s="28" t="s">
+        <v>443</v>
+      </c>
       <c r="C81" t="s">
         <v>120</v>
       </c>
@@ -4678,7 +4731,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="82" spans="3:5">
+    <row r="82" spans="2:5">
+      <c r="B82" s="28"/>
       <c r="C82" t="s">
         <v>121</v>
       </c>
@@ -4689,7 +4743,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="83" spans="3:5">
+    <row r="83" spans="2:5">
+      <c r="B83" s="28"/>
       <c r="C83" t="s">
         <v>122</v>
       </c>
@@ -4700,7 +4755,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="84" spans="3:5">
+    <row r="84" spans="2:5">
+      <c r="B84" s="28" t="s">
+        <v>471</v>
+      </c>
       <c r="C84" t="s">
         <v>123</v>
       </c>
@@ -4711,7 +4769,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="85" spans="3:5">
+    <row r="85" spans="2:5">
+      <c r="B85" s="28" t="s">
+        <v>450</v>
+      </c>
       <c r="C85" t="s">
         <v>124</v>
       </c>
@@ -4722,7 +4783,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="86" spans="3:5">
+    <row r="86" spans="2:5">
+      <c r="B86" s="28" t="s">
+        <v>451</v>
+      </c>
       <c r="C86" t="s">
         <v>125</v>
       </c>
@@ -4733,7 +4797,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="87" spans="3:5">
+    <row r="87" spans="2:5">
+      <c r="B87" s="28" t="s">
+        <v>464</v>
+      </c>
       <c r="C87" t="s">
         <v>126</v>
       </c>
@@ -4744,7 +4811,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="3:5">
+    <row r="88" spans="2:5">
+      <c r="B88" s="28"/>
       <c r="C88" t="s">
         <v>127</v>
       </c>
@@ -4755,7 +4823,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="89" spans="3:5">
+    <row r="89" spans="2:5">
+      <c r="B89" s="28"/>
       <c r="C89" t="s">
         <v>128</v>
       </c>
@@ -4766,7 +4835,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="90" spans="3:5">
+    <row r="90" spans="2:5">
+      <c r="B90" s="28"/>
       <c r="C90" t="s">
         <v>129</v>
       </c>
@@ -4777,7 +4847,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="91" spans="3:5">
+    <row r="91" spans="2:5">
+      <c r="B91" s="28"/>
       <c r="C91" t="s">
         <v>130</v>
       </c>
@@ -4788,7 +4859,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="3:5">
+    <row r="92" spans="2:5">
+      <c r="B92" s="28"/>
       <c r="C92" t="s">
         <v>131</v>
       </c>
@@ -4799,7 +4871,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="93" spans="3:5">
+    <row r="93" spans="2:5">
+      <c r="B93" s="28" t="s">
+        <v>472</v>
+      </c>
       <c r="C93" t="s">
         <v>132</v>
       </c>
@@ -4810,7 +4885,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="94" spans="3:5">
+    <row r="94" spans="2:5">
+      <c r="B94" s="28" t="s">
+        <v>452</v>
+      </c>
       <c r="C94" t="s">
         <v>133</v>
       </c>
@@ -4821,7 +4899,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="3:5">
+    <row r="95" spans="2:5">
+      <c r="B95" s="28" t="s">
+        <v>438</v>
+      </c>
       <c r="C95" t="s">
         <v>134</v>
       </c>
@@ -4832,7 +4913,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="96" spans="3:5">
+    <row r="96" spans="2:5">
+      <c r="B96" s="28"/>
       <c r="C96" t="s">
         <v>135</v>
       </c>
@@ -4843,7 +4925,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="97" spans="3:5">
+    <row r="97" spans="2:5">
+      <c r="B97" s="28"/>
       <c r="C97" t="s">
         <v>136</v>
       </c>
@@ -4854,7 +4937,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="98" spans="3:5">
+    <row r="98" spans="2:5">
+      <c r="B98" s="28" t="s">
+        <v>453</v>
+      </c>
       <c r="C98" t="s">
         <v>137</v>
       </c>
@@ -4865,7 +4951,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="99" spans="3:5">
+    <row r="99" spans="2:5">
+      <c r="B99" s="28"/>
       <c r="C99" t="s">
         <v>138</v>
       </c>
@@ -4876,7 +4963,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="100" spans="3:5">
+    <row r="100" spans="2:5">
+      <c r="B100" s="28"/>
       <c r="C100" t="s">
         <v>139</v>
       </c>
@@ -4887,7 +4975,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="101" spans="3:5">
+    <row r="101" spans="2:5">
+      <c r="B101" s="28"/>
       <c r="C101" t="s">
         <v>140</v>
       </c>
@@ -4898,7 +4987,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="102" spans="3:5">
+    <row r="102" spans="2:5">
+      <c r="B102" s="28" t="s">
+        <v>473</v>
+      </c>
       <c r="C102" t="s">
         <v>141</v>
       </c>
@@ -4909,7 +5001,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="103" spans="3:5">
+    <row r="103" spans="2:5">
+      <c r="B103" s="28"/>
       <c r="C103" t="s">
         <v>142</v>
       </c>
@@ -4920,7 +5013,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="104" spans="3:5">
+    <row r="104" spans="2:5">
+      <c r="B104" s="28" t="s">
+        <v>474</v>
+      </c>
       <c r="C104" t="s">
         <v>143</v>
       </c>
@@ -4931,7 +5027,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="105" spans="3:5">
+    <row r="105" spans="2:5">
+      <c r="B105" s="28"/>
       <c r="C105" t="s">
         <v>144</v>
       </c>
@@ -4942,7 +5039,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="106" spans="3:5">
+    <row r="106" spans="2:5">
+      <c r="B106" s="28"/>
       <c r="C106" t="s">
         <v>145</v>
       </c>
@@ -4953,7 +5051,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="107" spans="3:5">
+    <row r="107" spans="2:5">
+      <c r="B107" s="28" t="s">
+        <v>454</v>
+      </c>
       <c r="C107" t="s">
         <v>146</v>
       </c>
@@ -4964,7 +5065,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="108" spans="3:5">
+    <row r="108" spans="2:5">
+      <c r="B108" s="28" t="s">
+        <v>455</v>
+      </c>
       <c r="C108" t="s">
         <v>147</v>
       </c>
@@ -4975,7 +5079,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="109" spans="3:5">
+    <row r="109" spans="2:5">
+      <c r="B109" s="28" t="s">
+        <v>439</v>
+      </c>
       <c r="C109" t="s">
         <v>148</v>
       </c>
@@ -4986,7 +5093,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="110" spans="3:5">
+    <row r="110" spans="2:5">
+      <c r="B110" s="28" t="s">
+        <v>456</v>
+      </c>
       <c r="C110" t="s">
         <v>149</v>
       </c>
@@ -4997,7 +5107,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="111" spans="3:5">
+    <row r="111" spans="2:5">
+      <c r="B111" s="28" t="s">
+        <v>457</v>
+      </c>
       <c r="C111" t="s">
         <v>150</v>
       </c>
@@ -5008,7 +5121,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="112" spans="3:5">
+    <row r="112" spans="2:5">
+      <c r="B112" s="28" t="s">
+        <v>475</v>
+      </c>
       <c r="C112" t="s">
         <v>151</v>
       </c>
@@ -5019,7 +5135,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="113" spans="3:5">
+    <row r="113" spans="2:5">
+      <c r="B113" s="28"/>
       <c r="C113" t="s">
         <v>152</v>
       </c>
@@ -5030,7 +5147,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="114" spans="3:5">
+    <row r="114" spans="2:5">
+      <c r="B114" s="28" t="s">
+        <v>458</v>
+      </c>
       <c r="C114" t="s">
         <v>153</v>
       </c>
@@ -5041,7 +5161,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="115" spans="3:5">
+    <row r="115" spans="2:5">
+      <c r="B115" s="28" t="s">
+        <v>476</v>
+      </c>
       <c r="C115" t="s">
         <v>154</v>
       </c>
@@ -5052,7 +5175,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="116" spans="3:5">
+    <row r="116" spans="2:5">
+      <c r="B116" s="28" t="s">
+        <v>477</v>
+      </c>
       <c r="C116" t="s">
         <v>155</v>
       </c>
@@ -5063,7 +5189,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="117" spans="3:5">
+    <row r="117" spans="2:5">
+      <c r="B117" s="28" t="s">
+        <v>440</v>
+      </c>
       <c r="C117" t="s">
         <v>156</v>
       </c>
@@ -5074,7 +5203,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="118" spans="3:5">
+    <row r="118" spans="2:5">
+      <c r="B118" s="28"/>
       <c r="C118" t="s">
         <v>157</v>
       </c>
@@ -5085,7 +5215,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="119" spans="3:5">
+    <row r="119" spans="2:5">
+      <c r="B119" s="28" t="s">
+        <v>459</v>
+      </c>
       <c r="C119" t="s">
         <v>158</v>
       </c>
@@ -5096,7 +5229,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="120" spans="3:5">
+    <row r="120" spans="2:5">
+      <c r="B120" s="28"/>
       <c r="C120" t="s">
         <v>159</v>
       </c>
@@ -5107,7 +5241,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="121" spans="3:5">
+    <row r="121" spans="2:5">
+      <c r="B121" s="28" t="s">
+        <v>478</v>
+      </c>
       <c r="C121" t="s">
         <v>160</v>
       </c>
@@ -5118,7 +5255,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="122" spans="3:5">
+    <row r="122" spans="2:5">
+      <c r="B122" s="28" t="s">
+        <v>441</v>
+      </c>
       <c r="C122" t="s">
         <v>161</v>
       </c>
@@ -5129,7 +5269,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="123" spans="3:5">
+    <row r="123" spans="2:5">
+      <c r="B123" s="28"/>
       <c r="C123" t="s">
         <v>162</v>
       </c>
@@ -5140,7 +5281,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="124" spans="3:5">
+    <row r="124" spans="2:5">
+      <c r="B124" s="28"/>
       <c r="C124" t="s">
         <v>163</v>
       </c>
@@ -5151,7 +5293,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="125" spans="3:5">
+    <row r="125" spans="2:5">
+      <c r="B125" s="28" t="s">
+        <v>460</v>
+      </c>
       <c r="C125" t="s">
         <v>164</v>
       </c>
@@ -5162,7 +5307,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="126" spans="3:5">
+    <row r="126" spans="2:5">
+      <c r="B126" s="28"/>
       <c r="C126" t="s">
         <v>165</v>
       </c>
@@ -5173,7 +5319,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="127" spans="3:5">
+    <row r="127" spans="2:5">
+      <c r="B127" s="28"/>
       <c r="C127" t="s">
         <v>166</v>
       </c>
@@ -5184,7 +5331,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="128" spans="3:5">
+    <row r="128" spans="2:5">
+      <c r="B128" s="28"/>
       <c r="C128" t="s">
         <v>167</v>
       </c>
@@ -5196,6 +5344,9 @@
       </c>
     </row>
     <row r="129" spans="1:5">
+      <c r="B129" s="28" t="s">
+        <v>461</v>
+      </c>
       <c r="C129" t="s">
         <v>168</v>
       </c>
@@ -5207,6 +5358,9 @@
       </c>
     </row>
     <row r="130" spans="1:5">
+      <c r="B130" s="28" t="s">
+        <v>479</v>
+      </c>
       <c r="C130" t="s">
         <v>169</v>
       </c>
@@ -5218,6 +5372,7 @@
       </c>
     </row>
     <row r="131" spans="1:5">
+      <c r="B131" s="28"/>
       <c r="C131" t="s">
         <v>170</v>
       </c>
@@ -5229,6 +5384,7 @@
       </c>
     </row>
     <row r="132" spans="1:5">
+      <c r="B132" s="28"/>
       <c r="C132" t="s">
         <v>171</v>
       </c>
@@ -5240,6 +5396,9 @@
       </c>
     </row>
     <row r="133" spans="1:5">
+      <c r="B133" s="28" t="s">
+        <v>462</v>
+      </c>
       <c r="C133" t="s">
         <v>172</v>
       </c>
@@ -5254,6 +5413,7 @@
       <c r="A134" s="8" t="s">
         <v>362</v>
       </c>
+      <c r="B134" s="28"/>
       <c r="C134" t="s">
         <v>173</v>
       </c>
@@ -6096,8 +6256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE2CEA4-57A1-FB41-AE1D-EFE8EADC5995}">
   <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="I136" sqref="I136"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
